--- a/xlsx/sql_nominees.xlsx
+++ b/xlsx/sql_nominees.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Люди</t>
   </si>
@@ -26,6 +26,54 @@
   </si>
   <si>
     <t>Форрест Гамп</t>
+  </si>
+  <si>
+    <t>Тим Роббинс</t>
+  </si>
+  <si>
+    <t>Побег из Шоушенка</t>
+  </si>
+  <si>
+    <t>Морган Фриман</t>
+  </si>
+  <si>
+    <t>Франсуа Клюзе</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>Омар Си</t>
+  </si>
+  <si>
+    <t>Лиам Нисон</t>
+  </si>
+  <si>
+    <t>Список Шиндлера</t>
+  </si>
+  <si>
+    <t>Мэттью МакКонахи</t>
+  </si>
+  <si>
+    <t>Интерстеллар</t>
+  </si>
+  <si>
+    <t>Энн Хэтэуэй</t>
+  </si>
+  <si>
+    <t>Элайджа Вуд</t>
+  </si>
+  <si>
+    <t>Властелин колец: Возвращение короля</t>
+  </si>
+  <si>
+    <t>Орландо Блум</t>
+  </si>
+  <si>
+    <t>Эдвард Нортон</t>
+  </si>
+  <si>
+    <t>Бойцовский клуб</t>
   </si>
 </sst>
 </file>
@@ -63,11 +111,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -312,20 +363,18 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
@@ -335,9 +384,115 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
